--- a/biology/Zoologie/Burnia/Burnia.xlsx
+++ b/biology/Zoologie/Burnia/Burnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Burnia est un genre d'opilions dyspnois de la famille des Nemastomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Espagne[1]. Elles se rencontrent au Pays basque et en Cantabrie dans des grottes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Espagne. Elles se rencontrent au Pays basque et en Cantabrie dans des grottes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (29/03/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (29/03/2023) :
 Burnia sexmucronata (Simon, 1911)
 Burnia spelaea Prieto, 2021</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Prieto en 2021 dans les Nemastomatidae.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de la Sociedad Espeleológica Burnia[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de la Sociedad Espeleológica Burnia.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prieto, 2021 : « Burnia spelaea gen. nov., sp. nov., the first eyeless nemastomatid from the Iberian Peninsula, with new records and generic reassignment of Nemastomella sexmucronata (Simon, 1913) (Opiliones: Dyspnoi: Troguloidea). » Revista Ibérica de Aracnología, no 38, p. 21–30.</t>
         </is>
